--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_11.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,420 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1135714285714286</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'B', 'E:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.778458, 28.978185)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(71.072653, 74.544036)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:00:00.700000', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:51.460000', '0:02:04.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -888,317 +910,262 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_156</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3846153846153846</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.84, 15.86)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(46.06, 55.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.64, 36.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
